--- a/fixtures/tags.xlsx
+++ b/fixtures/tags.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek Hanzal\Projects\github.com\marek-hanzal\puff-smith\upgrade\fixtures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek Hanzal\Projects\github.com\marek-hanzal\puff-smith\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A55FB46-D45B-4C7B-90F6-55928FAD31FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309DD61F-CD59-4237-8A6D-FCEEE8EFF5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="2280" windowWidth="33615" windowHeight="18390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27045" yWindow="1575" windowWidth="27960" windowHeight="18390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tabs" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
-  <si>
-    <t>Edde\Tag\Import\TagImport</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
   <si>
     <t>tab</t>
   </si>
@@ -110,6 +107,33 @@
   </si>
   <si>
     <t>RDTA</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>vendor-type</t>
+  </si>
+  <si>
+    <t>cell</t>
+  </si>
+  <si>
+    <t>mod</t>
+  </si>
+  <si>
+    <t>atomizer</t>
+  </si>
+  <si>
+    <t>cotton</t>
+  </si>
+  <si>
+    <t>wire</t>
+  </si>
+  <si>
+    <t>liquid</t>
+  </si>
+  <si>
+    <t>driptip</t>
   </si>
 </sst>
 </file>
@@ -451,7 +475,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,18 +486,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -483,10 +507,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155FFD59-B00A-42A0-9723-B6B17686BDEE}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,21 +522,21 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -520,10 +544,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -531,10 +555,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -542,10 +566,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -553,10 +577,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -564,10 +588,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -575,10 +599,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -586,10 +610,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -597,10 +621,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -608,10 +632,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -619,10 +643,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
         <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -630,10 +654,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -641,10 +665,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -652,10 +676,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -666,7 +690,7 @@
         <v>18350</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -677,7 +701,7 @@
         <v>18650</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -688,7 +712,7 @@
         <v>20700</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -699,7 +723,7 @@
         <v>21700</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -710,7 +734,7 @@
         <v>26650</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -718,10 +742,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -729,10 +753,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -740,13 +764,90 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23">
         <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
